--- a/i2o_SU_SanityBQTest/Testcases/testscenarios-ausgold.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios-ausgold.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\Testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_BQ\i2o_SU_SanityBQTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7B88B5-C063-459F-BB56-A857A995864E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA32F36-521B-419E-A785-30A4901966B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="82">
   <si>
     <t>Execution status</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>f0_</t>
   </si>
   <si>
     <t>Columname</t>
@@ -188,9 +185,33 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>05/30/2020 14:38:32</t>
+  </si>
+  <si>
+    <t>05/30/2020 14:39:06</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>167149.0</t>
+  </si>
+  <si>
+    <t>30431.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
+    <t>05/30/2020 15:27:46</t>
+  </si>
+  <si>
     <t>B01M8G39OW</t>
   </si>
   <si>
@@ -257,13 +278,14 @@
     <t>2892.0</t>
   </si>
   <si>
-    <t>05/30/2020 00:15:37</t>
+    <t>05/30/2020 15:28:14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1047,25 +1069,25 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,23 +1095,26 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1098,7 +1123,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
@@ -1124,21 +1149,21 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="57.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="57.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="28.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="9.85546875" collapsed="true"/>
+    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1155,7 +1180,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>9</v>
@@ -1178,18 +1203,26 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1199,18 +1232,26 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1220,18 +1261,26 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1255,21 +1304,21 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="60.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="12.85546875" collapsed="true"/>
+    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1286,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>9</v>
@@ -1309,25 +1358,25 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1340,19 +1389,19 @@
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1365,24 +1414,24 @@
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -1390,19 +1439,19 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1415,24 +1464,24 @@
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -1440,24 +1489,24 @@
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -1465,24 +1514,24 @@
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -1490,24 +1539,24 @@
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -1515,24 +1564,24 @@
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -1540,53 +1589,53 @@
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1594,24 +1643,24 @@
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1619,24 +1668,24 @@
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -1644,24 +1693,24 @@
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1669,24 +1718,24 @@
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1694,24 +1743,24 @@
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -1719,24 +1768,24 @@
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1744,24 +1793,24 @@
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -1769,24 +1818,24 @@
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
@@ -1794,19 +1843,19 @@
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
